--- a/figure_and_stats/data/cfu_per_gram_dry_soil/cfu_per_g_d_soil_allgroups.xlsx
+++ b/figure_and_stats/data/cfu_per_gram_dry_soil/cfu_per_g_d_soil_allgroups.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobpollard/Desktop/Uni/1.2/BABS-2 /Report and figure/Report/Y3948024/figure_and_stats/data/cfu_per_gram_dry_soil/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E7527E-A942-9245-91F0-C2FAB89A5BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F4DDAC-483E-D743-A9E3-CED5F46BA97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9800" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{A75D4DBF-2287-2844-A84B-DDE67208B454}"/>
+    <workbookView xWindow="3960" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="3" xr2:uid="{A75D4DBF-2287-2844-A84B-DDE67208B454}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="5">
   <si>
     <t>plate</t>
   </si>
@@ -434,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B5A07D-E880-E848-8C02-081EB135E08B}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
@@ -666,7 +667,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,4 +774,118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33172A-F6BE-6049-A44A-59075F157AF5}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" activeCellId="7" sqref="C2 C3 C4 C5 C6 C8 C7 C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>